--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Wnt5a-Fzd4.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Wnt5a-Fzd4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
@@ -83,9 +86,6 @@
   </si>
   <si>
     <t>Fzd4</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T4"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +519,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>5.85400087977297</v>
+        <v>0.1599003333333333</v>
       </c>
       <c r="H2">
-        <v>5.85400087977297</v>
+        <v>0.479701</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.0264777194346773</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.02647771943467731</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.005080725778</v>
+        <v>31.38723566666667</v>
       </c>
       <c r="N2">
-        <v>31.005080725778</v>
+        <v>94.16170700000001</v>
       </c>
       <c r="O2">
-        <v>0.5602529565961011</v>
+        <v>0.5539598599114094</v>
       </c>
       <c r="P2">
-        <v>0.5602529565961011</v>
+        <v>0.5539598599114095</v>
       </c>
       <c r="Q2">
-        <v>181.5037698461364</v>
+        <v>5.01882944551189</v>
       </c>
       <c r="R2">
-        <v>181.5037698461364</v>
+        <v>45.169465009607</v>
       </c>
       <c r="S2">
-        <v>0.5602529565961011</v>
+        <v>0.01466759374880744</v>
       </c>
       <c r="T2">
-        <v>0.5602529565961011</v>
+        <v>0.01466759374880745</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +581,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>5.85400087977297</v>
+        <v>0.1599003333333333</v>
       </c>
       <c r="H3">
-        <v>5.85400087977297</v>
+        <v>0.479701</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.0264777194346773</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.02647771943467731</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>17.3232563065114</v>
+        <v>17.55525033333333</v>
       </c>
       <c r="N3">
-        <v>17.3232563065114</v>
+        <v>52.665751</v>
       </c>
       <c r="O3">
-        <v>0.3130262955750305</v>
+        <v>0.3098362697066353</v>
       </c>
       <c r="P3">
-        <v>0.3130262955750305</v>
+        <v>0.3098362697066353</v>
       </c>
       <c r="Q3">
-        <v>101.4103576588504</v>
+        <v>2.807090380050111</v>
       </c>
       <c r="R3">
-        <v>101.4103576588504</v>
+        <v>25.263813420451</v>
       </c>
       <c r="S3">
-        <v>0.3130262955750305</v>
+        <v>0.008203757819979297</v>
       </c>
       <c r="T3">
-        <v>0.3130262955750305</v>
+        <v>0.008203757819979297</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,10 +643,10 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>24</v>
@@ -655,49 +655,235 @@
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>5.85400087977297</v>
+        <v>0.1599003333333333</v>
       </c>
       <c r="H4">
-        <v>5.85400087977297</v>
+        <v>0.479701</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.0264777194346773</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.02647771943467731</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>7.0128804673092</v>
+        <v>7.717279333333334</v>
       </c>
       <c r="N4">
-        <v>7.0128804673092</v>
+        <v>23.151838</v>
       </c>
       <c r="O4">
-        <v>0.1267207478288685</v>
+        <v>0.1362038703819552</v>
       </c>
       <c r="P4">
-        <v>0.1267207478288685</v>
+        <v>0.1362038703819552</v>
       </c>
       <c r="Q4">
-        <v>41.05340842537073</v>
+        <v>1.233995537826445</v>
       </c>
       <c r="R4">
-        <v>41.05340842537073</v>
+        <v>11.105959840438</v>
       </c>
       <c r="S4">
-        <v>0.1267207478288685</v>
+        <v>0.003606367865890564</v>
       </c>
       <c r="T4">
-        <v>0.1267207478288685</v>
+        <v>0.003606367865890565</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>5.879152</v>
+      </c>
+      <c r="H5">
+        <v>17.637456</v>
+      </c>
+      <c r="I5">
+        <v>0.9735222805653226</v>
+      </c>
+      <c r="J5">
+        <v>0.9735222805653228</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>31.38723566666667</v>
+      </c>
+      <c r="N5">
+        <v>94.16170700000001</v>
+      </c>
+      <c r="O5">
+        <v>0.5539598599114094</v>
+      </c>
+      <c r="P5">
+        <v>0.5539598599114095</v>
+      </c>
+      <c r="Q5">
+        <v>184.5303293441547</v>
+      </c>
+      <c r="R5">
+        <v>1660.772964097392</v>
+      </c>
+      <c r="S5">
+        <v>0.539292266162602</v>
+      </c>
+      <c r="T5">
+        <v>0.5392922661626021</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>5.879152</v>
+      </c>
+      <c r="H6">
+        <v>17.637456</v>
+      </c>
+      <c r="I6">
+        <v>0.9735222805653226</v>
+      </c>
+      <c r="J6">
+        <v>0.9735222805653228</v>
+      </c>
+      <c r="K6">
+        <v>3</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>17.55525033333333</v>
+      </c>
+      <c r="N6">
+        <v>52.665751</v>
+      </c>
+      <c r="O6">
+        <v>0.3098362697066353</v>
+      </c>
+      <c r="P6">
+        <v>0.3098362697066353</v>
+      </c>
+      <c r="Q6">
+        <v>103.2099851077173</v>
+      </c>
+      <c r="R6">
+        <v>928.889865969456</v>
+      </c>
+      <c r="S6">
+        <v>0.301632511886656</v>
+      </c>
+      <c r="T6">
+        <v>0.301632511886656</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>5.879152</v>
+      </c>
+      <c r="H7">
+        <v>17.637456</v>
+      </c>
+      <c r="I7">
+        <v>0.9735222805653226</v>
+      </c>
+      <c r="J7">
+        <v>0.9735222805653228</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>7.717279333333334</v>
+      </c>
+      <c r="N7">
+        <v>23.151838</v>
+      </c>
+      <c r="O7">
+        <v>0.1362038703819552</v>
+      </c>
+      <c r="P7">
+        <v>0.1362038703819552</v>
+      </c>
+      <c r="Q7">
+        <v>45.37105822712534</v>
+      </c>
+      <c r="R7">
+        <v>408.339524044128</v>
+      </c>
+      <c r="S7">
+        <v>0.1325975025160646</v>
+      </c>
+      <c r="T7">
+        <v>0.1325975025160647</v>
       </c>
     </row>
   </sheetData>
